--- a/Assets/Docs/Excels/interface list.xlsx
+++ b/Assets/Docs/Excels/interface list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quantum Blaze\Projects\Research Project\POS Systems\POS_Java_01\Assets\Docs\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB74FAA-49AD-4911-9622-1BAF28E1FCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810B451-401A-4050-BC3B-5A77A958A46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,26 +337,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +806,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,638 +815,638 @@
     <col min="2" max="2" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
     <col min="6" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C19:C22">

--- a/Assets/Docs/Excels/interface list.xlsx
+++ b/Assets/Docs/Excels/interface list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quantum Blaze\Projects\Research Project\POS Systems\POS_Java_01\Assets\Docs\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55965FCF-4458-4CDA-9408-B1F4FC670434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB825A48-EAA3-4519-879E-4BC547640496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>System Login</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>can be view with ID number</t>
+  </si>
+  <si>
+    <t>Product Costing</t>
   </si>
 </sst>
 </file>
@@ -347,18 +350,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,10 +666,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,19 +686,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -703,20 +706,20 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,8 +728,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
@@ -734,7 +737,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -743,30 +746,30 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1"/>
@@ -774,18 +777,18 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -794,8 +797,8 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1"/>
@@ -805,8 +808,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="1"/>
@@ -816,7 +819,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -827,7 +830,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -836,7 +839,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -845,7 +848,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -863,27 +866,27 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
@@ -892,59 +895,59 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
@@ -959,19 +962,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>39</v>
@@ -984,10 +987,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
-        <v>40</v>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>39</v>
@@ -1000,9 +1003,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1016,355 +1019,364 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="1" t="s">
-        <v>50</v>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
+      <c r="A35" s="8"/>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>27</v>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
-        <v>28</v>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>35</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
-        <v>28</v>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>27</v>
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
-        <v>28</v>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>41</v>
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="1"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="1"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="3"/>
     </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C19:C22">
-    <sortCondition ref="C19:C22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C34">
+    <sortCondition ref="C26:C34"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B47:B61"/>
-    <mergeCell ref="A14:A61"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="A14:A62"/>
+    <mergeCell ref="A63:A67"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B19:B23"/>
   </mergeCells>

--- a/Assets/Docs/Excels/interface list.xlsx
+++ b/Assets/Docs/Excels/interface list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quantum Blaze\Projects\Research Project\POS Systems\POS_Java_01\Assets\Docs\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB825A48-EAA3-4519-879E-4BC547640496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C397C380-CC49-4DD4-B56C-88F5E45D307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>System Login</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Bill Discount</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Report</t>
   </si>
   <si>
-    <t>View, Create</t>
-  </si>
-  <si>
     <t>Distribute</t>
   </si>
   <si>
@@ -213,13 +207,43 @@
     <t>Invoice Payment view</t>
   </si>
   <si>
-    <t>View, Return</t>
-  </si>
-  <si>
-    <t>can be view with ID number</t>
-  </si>
-  <si>
     <t>Product Costing</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Product Distribute</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>View, process</t>
+  </si>
+  <si>
+    <t>Inventory Control System</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Employee Management</t>
+  </si>
+  <si>
+    <t>Discount (Bill, Product)</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Credit Payment</t>
+  </si>
+  <si>
+    <t>Free Payment</t>
+  </si>
+  <si>
+    <t>ON/ OFF</t>
   </si>
 </sst>
 </file>
@@ -340,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +400,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,28 +693,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -715,7 +740,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +778,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,7 +789,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,12 +804,12 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,18 +829,18 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,336 +856,334 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="1"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="1"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="1"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="1"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
@@ -1177,13 +1200,15 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -1192,7 +1217,9 @@
         <v>6</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
@@ -1201,16 +1228,20 @@
         <v>7</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1219,16 +1250,20 @@
         <v>11</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -1237,148 +1272,396 @@
         <v>29</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
-      <c r="B67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C34">
-    <sortCondition ref="C26:C34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C29:E33">
+    <sortCondition ref="C28:C33"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="B63:B83"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B84:B85"/>
     <mergeCell ref="B48:B62"/>
     <mergeCell ref="A14:A62"/>
-    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A63:A87"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Assets/Docs/Excels/interface list.xlsx
+++ b/Assets/Docs/Excels/interface list.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quantum Blaze\Projects\Research Project\POS Systems\POS_Java_01\Assets\Docs\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C397C380-CC49-4DD4-B56C-88F5E45D307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D52A2B-111D-4C95-89A2-8E65A8244FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -271,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,13 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C1C1C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3DBFF"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,47 +367,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,959 +684,954 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="5" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="5" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="1" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="5" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="1" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="1" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="1" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="1" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="1" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="1" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="1" t="s">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="1" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="1" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="1" t="s">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="1" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="1" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="1" t="s">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="1" t="s">
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="1" t="s">
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="1" t="s">
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="1" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="1" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="1" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="1" t="s">
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="1" t="s">
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="1" t="s">
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="1" t="s">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="6"/>
+      <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="6"/>
+      <c r="B87" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C29:E33">
     <sortCondition ref="C28:C33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="B63:B83"/>
     <mergeCell ref="B28:B45"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="A1:E1"/>
@@ -1662,6 +1645,11 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="B63:B83"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
